--- a/INTLINE/data/134/DEUSTATIS/National accounts - general government years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - general government years.xlsx
@@ -162,7 +162,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:39:21</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:45:59</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1318,7 @@
         <v>1566.885</v>
       </c>
       <c r="AG5" t="n" s="10">
-        <v>1705.765</v>
+        <v>1711.127</v>
       </c>
     </row>
     <row r="6">
@@ -1419,7 +1419,7 @@
         <v>1381.364</v>
       </c>
       <c r="AG6" t="n" s="10">
-        <v>1505.666</v>
+        <v>1511.731</v>
       </c>
     </row>
     <row r="7">
@@ -1520,7 +1520,7 @@
         <v>773.416</v>
       </c>
       <c r="AG7" t="n" s="10">
-        <v>872.868</v>
+        <v>878.438</v>
       </c>
     </row>
     <row r="8">
@@ -1621,7 +1621,7 @@
         <v>607.948</v>
       </c>
       <c r="AG8" t="n" s="10">
-        <v>632.798</v>
+        <v>633.293</v>
       </c>
     </row>
     <row r="9">
@@ -1722,7 +1722,7 @@
         <v>1712.131</v>
       </c>
       <c r="AG9" t="n" s="10">
-        <v>1838.219</v>
+        <v>1841.938</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1823,7 @@
         <v>209.82</v>
       </c>
       <c r="AG10" t="n" s="10">
-        <v>232.498</v>
+        <v>229.899</v>
       </c>
     </row>
     <row r="11">
@@ -1924,7 +1924,7 @@
         <v>284.09</v>
       </c>
       <c r="AG11" t="n" s="10">
-        <v>294.118</v>
+        <v>294.044</v>
       </c>
     </row>
     <row r="12">
@@ -2025,7 +2025,7 @@
         <v>595.075</v>
       </c>
       <c r="AG12" t="n" s="10">
-        <v>609.014</v>
+        <v>607.172</v>
       </c>
     </row>
     <row r="13">
@@ -2126,7 +2126,7 @@
         <v>310.102</v>
       </c>
       <c r="AG13" t="n" s="10">
-        <v>327.498</v>
+        <v>329.028</v>
       </c>
     </row>
     <row r="14">
@@ -2227,7 +2227,7 @@
         <v>90.94</v>
       </c>
       <c r="AG14" t="n" s="10">
-        <v>91.748</v>
+        <v>92.121</v>
       </c>
     </row>
     <row r="15">
@@ -2328,7 +2328,7 @@
         <v>-145.246</v>
       </c>
       <c r="AG15" t="n" s="10">
-        <v>-132.454</v>
+        <v>-130.811</v>
       </c>
     </row>
     <row r="16">
@@ -2349,7 +2349,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:39:25&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:46:02&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - general government years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - general government years.xlsx
@@ -162,7 +162,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:45:59</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:36:13</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2349,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:46:02&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:36:15&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>